--- a/biology/Médecine/Institut_universitaire_de_gériatrie_de_Montréal/Institut_universitaire_de_gériatrie_de_Montréal.xlsx
+++ b/biology/Médecine/Institut_universitaire_de_gériatrie_de_Montréal/Institut_universitaire_de_gériatrie_de_Montréal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_universitaire_de_g%C3%A9riatrie_de_Montr%C3%A9al</t>
+          <t>Institut_universitaire_de_gériatrie_de_Montréal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Institut universitaire de gériatrie de Montréal (IUGM) est un centre de soins spécialisés implanté à Montréal, au Canada, qui se fixe comme buts le développement et le partage du savoir sur le vieillissement et la santé des personnes âgées.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Institut_universitaire_de_g%C3%A9riatrie_de_Montr%C3%A9al</t>
+          <t>Institut_universitaire_de_gériatrie_de_Montréal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L’Institut universitaire de gériatrie de Montréal, affilié à l’Université de Montréal, a une capacité de 452 lits répartis sur deux sites : le pavillon Côte-des-Neiges et le pavillon Alfred-DesRochers et compte près de 1 000 employés. Il est aussi :
 un Centre de recherche (CRIUGM), regroupant notamment des chercheurs et chercheuses de diverses universités;
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Institut_universitaire_de_g%C3%A9riatrie_de_Montr%C3%A9al</t>
+          <t>Institut_universitaire_de_gériatrie_de_Montréal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pratiques cliniques, soins spécialisés, promotion de la santé et développement des connaissances sur le vieillissement et la santé des personnes âgées.
 L’IUGM est un institut universitaire sur le vieillissement et la santé des personnes âgées œuvrant en milieu métropolitain multiethnique. Ses praticiens et ses chercheurs travaillent sur le vieillissement et la santé des personnes âgées. 
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Institut_universitaire_de_g%C3%A9riatrie_de_Montr%C3%A9al</t>
+          <t>Institut_universitaire_de_gériatrie_de_Montréal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,10 +599,12 @@
           <t>Pandémie de Covid-19</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 13 avril 2020, Il est rapporté que 33 résidents sont morts de la COVID-19 à l'IUGM, entre le 25 mars et le 12 avril[1].
-Le 22 avril, le Collège des médecins du Québec, l’Ordre des infirmières et infirmiers du Québec ainsi que l’Ordre des infirmières et infirmiers auxiliaires du Québec annoncent la tenue d’une enquête conjointe sur la qualité des soins dispensés dans le l’IUGM et CHSLD Herron (en) pendant la pandémie[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 13 avril 2020, Il est rapporté que 33 résidents sont morts de la COVID-19 à l'IUGM, entre le 25 mars et le 12 avril.
+Le 22 avril, le Collège des médecins du Québec, l’Ordre des infirmières et infirmiers du Québec ainsi que l’Ordre des infirmières et infirmiers auxiliaires du Québec annoncent la tenue d’une enquête conjointe sur la qualité des soins dispensés dans le l’IUGM et CHSLD Herron (en) pendant la pandémie.
 </t>
         </is>
       </c>
